--- a/RSV-Scenarios-Shiny-App/scenarios.xlsx
+++ b/RSV-Scenarios-Shiny-App/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/hansencl_nih_gov1/Documents/Desktop/rsv-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/hansencl_nih_gov1/Documents/Documents/RProjects on github/RSV Interventions/RSV-Scenarios-Shiny-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{3527C01F-3D8B-4DA2-9F41-066CA6664165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3938B0-7DE3-47D6-9DEF-C79AF2EB6654}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{3527C01F-3D8B-4DA2-9F41-066CA6664165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C260190F-0B9B-4CF4-B5BF-A134DEB71F59}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{F870D2E9-A592-4648-8CB2-E9BBF92F3641}"/>
+    <workbookView xWindow="780" yWindow="1995" windowWidth="21600" windowHeight="10890" xr2:uid="{F870D2E9-A592-4648-8CB2-E9BBF92F3641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">Monoclonal Antibodies </t>
   </si>
@@ -47,15 +47,9 @@
     <t>Senior Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Counterfactual </t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t xml:space="preserve">None </t>
-  </si>
-  <si>
     <t>Scenario A</t>
   </si>
   <si>
@@ -68,31 +62,28 @@
     <t>Scenario D</t>
   </si>
   <si>
-    <t>Scenario E</t>
-  </si>
-  <si>
-    <t>Scenario F</t>
-  </si>
-  <si>
-    <t>Scenario G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario H </t>
-  </si>
-  <si>
-    <t>Optimistic</t>
-  </si>
-  <si>
-    <t>Pessimistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimistic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pessimistic </t>
-  </si>
-  <si>
     <t>Scenario</t>
+  </si>
+  <si>
+    <t>ScenarioE (Counterfactual)</t>
+  </si>
+  <si>
+    <t>25% (from 2023-34 season)</t>
+  </si>
+  <si>
+    <t>Optimistic (40%)</t>
+  </si>
+  <si>
+    <t>Pessimistic (30%)</t>
+  </si>
+  <si>
+    <t>Optimistic (75%)</t>
+  </si>
+  <si>
+    <t>Pessimistic (25%)</t>
+  </si>
+  <si>
+    <t>Optimistic (50%)</t>
   </si>
 </sst>
 </file>
@@ -468,23 +459,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975668ED-4EDE-4FC2-BB6E-B5118B29F305}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.04296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -496,130 +487,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
